--- a/validations/flangesegments.PolynomialTFlangeSegment/Case-D7500_Tilt-0deg_ShapeFactor-1.0.xlsx
+++ b/validations/flangesegments.PolynomialTFlangeSegment/Case-D7500_Tilt-0deg_ShapeFactor-1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NiklasSellmann\Mein Ordner\MyTools\pyflange\validations\flangesegments.PolynominalTFlangeSegment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\validations\flangesegments.PolynomialTFlangeSegment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CDB4B1-999F-4B88-A3A5-AB8AD857C62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8B44B1-2AB8-49F9-A845-42C2E5A6E1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-22245" yWindow="5970" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -334,10 +334,10 @@
     <definedName name="polynomial_initial_slope" localSheetId="0">Gap30deg!$J$153</definedName>
     <definedName name="polynomial_initial_slope" localSheetId="1">Gap60deg!$J$153</definedName>
     <definedName name="polynomial_initial_slope" localSheetId="2">Gap90deg!$J$153</definedName>
-    <definedName name="Print_Area" localSheetId="3">Gap120deg!$A$11:$K$177</definedName>
-    <definedName name="Print_Area" localSheetId="0">Gap30deg!$A$11:$K$177</definedName>
-    <definedName name="Print_Area" localSheetId="1">Gap60deg!$A$11:$K$177</definedName>
-    <definedName name="Print_Area" localSheetId="2">Gap90deg!$A$11:$K$177</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Gap120deg!$A$11:$K$177</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Gap30deg!$A$11:$K$177</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Gap60deg!$A$11:$K$177</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Gap90deg!$A$11:$K$177</definedName>
     <definedName name="Radius" localSheetId="3">Gap120deg!$J$41</definedName>
     <definedName name="Radius" localSheetId="0">Gap30deg!$J$41</definedName>
     <definedName name="Radius" localSheetId="1">Gap60deg!$J$41</definedName>
@@ -5913,13 +5913,34 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5931,29 +5952,9 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="32">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{441ACF27-160B-4F68-B601-75E0F5333046}"/>
     <cellStyle name="Normal 2 2" xfId="29" xr:uid="{88233607-20D6-4F10-9F6E-C8AC9D0F7A5E}"/>
     <cellStyle name="Normal 2 3" xfId="17" xr:uid="{76D1D0E2-72A6-4572-A8E6-935A294189EC}"/>
@@ -5966,13 +5967,12 @@
     <cellStyle name="Normal 5" xfId="12" xr:uid="{3FC07A9F-ABC8-4807-ACB2-10BE21A31477}"/>
     <cellStyle name="Normal 5 2" xfId="27" xr:uid="{28C25B9C-344F-4614-8DE2-B17BE343C899}"/>
     <cellStyle name="Normal 6" xfId="20" xr:uid="{D54955BB-441A-4139-9239-0F7819CE2977}"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="16" xr:uid="{239069C0-748A-4C21-A885-90201691E9E0}"/>
-    <cellStyle name="Prozent" xfId="3" builtinId="5"/>
     <cellStyle name="Prozent 2" xfId="10" xr:uid="{DE79924B-9EA4-47F1-B2B8-357E2B2AF526}"/>
     <cellStyle name="Prozent 2 2" xfId="25" xr:uid="{06F86116-19B0-42B4-8AED-FCDC8F93BB92}"/>
     <cellStyle name="Prozent 3" xfId="14" xr:uid="{A24755D7-F38D-4C5C-A76D-11249B0A0604}"/>
     <cellStyle name="Prozent 4" xfId="23" xr:uid="{7FBA6E65-A38B-4BE4-B1F4-47A5621CEAF3}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="4" xr:uid="{B02CA21A-3A09-4EBD-A388-4E5A2C25226E}"/>
     <cellStyle name="Standard 2 2" xfId="5" xr:uid="{45A6E877-D15B-4B40-966B-BBD3729A2ADC}"/>
     <cellStyle name="Standard 2 2 2" xfId="28" xr:uid="{E8C75847-EAE7-45B9-B68F-8A1DA8B767B8}"/>
@@ -6176,7 +6176,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6916,7 +6916,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6954,7 +6954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1213121792"/>
@@ -7038,7 +7038,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7076,7 +7076,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1759877744"/>
@@ -7119,7 +7119,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7133,7 +7133,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7873,7 +7873,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7911,7 +7911,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1213121792"/>
@@ -7996,7 +7996,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8034,7 +8034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1759877744"/>
@@ -8077,7 +8077,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8091,7 +8091,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8831,7 +8831,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8869,7 +8869,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1213121792"/>
@@ -8953,7 +8953,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8991,7 +8991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1759877744"/>
@@ -9034,7 +9034,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9048,7 +9048,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9788,7 +9788,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9826,7 +9826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1213121792"/>
@@ -9911,7 +9911,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9949,7 +9949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1759877744"/>
@@ -9992,7 +9992,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10006,7 +10006,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10746,7 +10746,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10784,7 +10784,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1213121792"/>
@@ -10868,7 +10868,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10906,7 +10906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1759877744"/>
@@ -10949,7 +10949,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10963,7 +10963,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11703,7 +11703,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11741,7 +11741,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1213121792"/>
@@ -11826,7 +11826,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11864,7 +11864,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1759877744"/>
@@ -11907,7 +11907,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11921,7 +11921,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12661,7 +12661,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12699,7 +12699,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1213121792"/>
@@ -12783,7 +12783,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12821,7 +12821,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1759877744"/>
@@ -12864,7 +12864,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12878,7 +12878,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13618,7 +13618,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13656,7 +13656,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1213121792"/>
@@ -13741,7 +13741,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13779,7 +13779,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1759877744"/>
@@ -13822,7 +13822,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18948,15 +18948,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
+          <xdr:colOff>335280</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18988,14 +18988,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-NL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -19060,9 +19060,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -19100,7 +19100,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -19206,7 +19206,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19366,13 +19366,13 @@
       <selection pane="bottomLeft" activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="11" width="9.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="19" width="8.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="11" width="9.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="19" width="8.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="52" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -19449,12 +19449,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -19462,12 +19462,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -19475,12 +19475,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="182"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -19488,12 +19488,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="182"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -19501,12 +19501,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="182"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -19517,7 +19517,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:15" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" collapsed="1" thickBot="1">
+    <row r="11" spans="1:15" s="34" customFormat="1" ht="39.9" customHeight="1" collapsed="1" thickBot="1">
       <c r="A11" s="37" t="s">
         <v>0</v>
       </c>
@@ -19554,112 +19554,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="172" t="s">
+      <c r="C13" s="174"/>
+      <c r="D13" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="172" t="s">
+      <c r="C14" s="174"/>
+      <c r="D14" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="172" t="s">
+      <c r="C15" s="174"/>
+      <c r="D15" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="172" t="str">
+      <c r="C16" s="174"/>
+      <c r="D16" s="176" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="171" t="s">
+      <c r="C17" s="174"/>
+      <c r="D17" s="180" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="173"/>
-      <c r="D18" s="183">
+      <c r="C18" s="174"/>
+      <c r="D18" s="175">
         <v>45432</v>
       </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -19847,16 +19847,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -23866,13 +23866,19 @@
       <c r="K177" s="4"/>
       <c r="L177" s="3"/>
     </row>
-    <row r="181" spans="1:12" ht="12.75">
+    <row r="181" spans="1:12" ht="13.2">
       <c r="B181" s="69"/>
       <c r="C181" s="69"/>
       <c r="D181" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -23883,16 +23889,10 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="between">
@@ -23936,13 +23936,13 @@
       <selection pane="bottomLeft" activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="11" width="9.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="19" width="8.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="11" width="9.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="19" width="8.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="52" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -24019,12 +24019,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24032,12 +24032,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24045,12 +24045,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="182"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24058,12 +24058,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="182"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24071,12 +24071,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="182"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24087,7 +24087,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:15" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" collapsed="1" thickBot="1">
+    <row r="11" spans="1:15" s="34" customFormat="1" ht="39.9" customHeight="1" collapsed="1" thickBot="1">
       <c r="A11" s="37" t="s">
         <v>294</v>
       </c>
@@ -24124,117 +24124,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="172" t="str">
+      <c r="C13" s="174"/>
+      <c r="D13" s="176" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="172" t="str">
+      <c r="C14" s="174"/>
+      <c r="D14" s="176" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="172" t="str">
+      <c r="C15" s="174"/>
+      <c r="D15" s="176" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="172" t="str">
+      <c r="C16" s="174"/>
+      <c r="D16" s="176" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="172" t="str">
+      <c r="C17" s="174"/>
+      <c r="D17" s="176" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="173"/>
-      <c r="D18" s="183">
+      <c r="C18" s="174"/>
+      <c r="D18" s="175">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -24422,16 +24422,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -28412,20 +28412,13 @@
       <c r="K177" s="4"/>
       <c r="L177" s="3"/>
     </row>
-    <row r="181" spans="1:12" ht="12.75">
+    <row r="181" spans="1:12" ht="13.2">
       <c r="B181" s="69"/>
       <c r="C181" s="69"/>
       <c r="D181" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -28439,6 +28432,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="between">
@@ -28482,13 +28482,13 @@
       <selection pane="bottomLeft" activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="11" width="9.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="19" width="8.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="11" width="9.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="19" width="8.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="52" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -28565,12 +28565,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -28578,12 +28578,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -28591,12 +28591,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="182"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -28604,12 +28604,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="182"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -28617,12 +28617,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="182"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -28633,7 +28633,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:15" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" collapsed="1" thickBot="1">
+    <row r="11" spans="1:15" s="34" customFormat="1" ht="39.9" customHeight="1" collapsed="1" thickBot="1">
       <c r="A11" s="37" t="s">
         <v>293</v>
       </c>
@@ -28670,117 +28670,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="172" t="str">
+      <c r="C13" s="174"/>
+      <c r="D13" s="176" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="172" t="str">
+      <c r="C14" s="174"/>
+      <c r="D14" s="176" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="172" t="str">
+      <c r="C15" s="174"/>
+      <c r="D15" s="176" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="172" t="str">
+      <c r="C16" s="174"/>
+      <c r="D16" s="176" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="172" t="str">
+      <c r="C17" s="174"/>
+      <c r="D17" s="176" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="173"/>
-      <c r="D18" s="183">
+      <c r="C18" s="174"/>
+      <c r="D18" s="175">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -28968,16 +28968,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -32958,20 +32958,13 @@
       <c r="K177" s="4"/>
       <c r="L177" s="3"/>
     </row>
-    <row r="181" spans="1:12" ht="12.75">
+    <row r="181" spans="1:12" ht="13.2">
       <c r="B181" s="69"/>
       <c r="C181" s="69"/>
       <c r="D181" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -32985,6 +32978,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="between">
@@ -33028,13 +33028,13 @@
       <selection pane="bottomLeft" activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="11" width="9.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="19" width="8.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="11" width="9.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="19" width="8.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="52" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -33111,12 +33111,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33124,12 +33124,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33137,12 +33137,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="182"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33150,12 +33150,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="182"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33163,12 +33163,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="182"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33179,7 +33179,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="1:15" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" collapsed="1" thickBot="1">
+    <row r="11" spans="1:15" s="34" customFormat="1" ht="39.9" customHeight="1" collapsed="1" thickBot="1">
       <c r="A11" s="37" t="s">
         <v>93</v>
       </c>
@@ -33216,117 +33216,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="172" t="str">
+      <c r="C13" s="174"/>
+      <c r="D13" s="176" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="172" t="str">
+      <c r="C14" s="174"/>
+      <c r="D14" s="176" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="172" t="str">
+      <c r="C15" s="174"/>
+      <c r="D15" s="176" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="172" t="str">
+      <c r="C16" s="174"/>
+      <c r="D16" s="176" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="172" t="str">
+      <c r="C17" s="174"/>
+      <c r="D17" s="176" t="str">
         <f>Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="173"/>
-      <c r="D18" s="183">
+      <c r="C18" s="174"/>
+      <c r="D18" s="175">
         <f>Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -33514,16 +33514,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -37504,20 +37504,13 @@
       <c r="K177" s="4"/>
       <c r="L177" s="3"/>
     </row>
-    <row r="181" spans="1:12" ht="12.75">
+    <row r="181" spans="1:12" ht="13.2">
       <c r="B181" s="69"/>
       <c r="C181" s="69"/>
       <c r="D181" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -37531,6 +37524,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="between">
@@ -37571,12 +37571,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="66.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37615,7 +37615,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="14.25">
+    <row r="6" spans="2:30" ht="13.8">
       <c r="R6" t="s">
         <v>361</v>
       </c>
@@ -37638,7 +37638,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="2:30" ht="14.25">
+    <row r="7" spans="2:30" ht="13.8">
       <c r="R7" t="s">
         <v>364</v>
       </c>
@@ -37661,7 +37661,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="2:30" ht="14.25">
+    <row r="8" spans="2:30" ht="13.8">
       <c r="X8" s="158" t="s">
         <v>366</v>
       </c>
@@ -37700,7 +37700,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="13.5">
+    <row r="11" spans="2:30" ht="15">
       <c r="R11" s="159" t="s">
         <v>371</v>
       </c>
@@ -37720,7 +37720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:30" ht="13.5">
+    <row r="12" spans="2:30" ht="15">
       <c r="R12" s="161" t="s">
         <v>374</v>
       </c>
@@ -37809,7 +37809,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:30" ht="13.5">
+    <row r="16" spans="2:30" ht="15">
       <c r="R16" s="159" t="s">
         <v>384</v>
       </c>
@@ -37889,7 +37889,7 @@
         <v>151494</v>
       </c>
     </row>
-    <row r="20" spans="2:30">
+    <row r="20" spans="2:30" ht="13.8">
       <c r="G20" s="134" t="s">
         <v>289</v>
       </c>
@@ -37903,7 +37903,7 @@
         <v>465.63499999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:30" ht="18.75">
+    <row r="21" spans="2:30" ht="18">
       <c r="G21" s="135">
         <v>120</v>
       </c>
@@ -38024,7 +38024,7 @@
         <v>730.55499999999995</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="15.75">
+    <row r="27" spans="2:30" ht="15.6">
       <c r="B27" s="106">
         <v>1</v>
       </c>
@@ -38064,7 +38064,7 @@
         <v>580.76499999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:30" ht="15.75">
+    <row r="28" spans="2:30" ht="15.6">
       <c r="B28" s="106">
         <f>B27+1</f>
         <v>2</v>
@@ -38123,7 +38123,7 @@
         <v>3348000</v>
       </c>
     </row>
-    <row r="29" spans="2:30" ht="15.75">
+    <row r="29" spans="2:30" ht="15.6">
       <c r="B29" s="106"/>
       <c r="C29" s="105" t="s">
         <v>207</v>
@@ -38180,7 +38180,7 @@
         <v>232543</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="15.75">
+    <row r="30" spans="2:30" ht="15.6">
       <c r="B30" s="106"/>
       <c r="C30" s="105" t="s">
         <v>204</v>
@@ -38234,7 +38234,7 @@
         <v>235453</v>
       </c>
     </row>
-    <row r="31" spans="2:30" ht="15.75">
+    <row r="31" spans="2:30" ht="15.6">
       <c r="B31" s="106">
         <f>B28+1</f>
         <v>3</v>
@@ -38297,7 +38297,7 @@
         <v>111586</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="15.75">
+    <row r="32" spans="2:30" ht="15.6">
       <c r="B32" s="106"/>
       <c r="C32" s="103" t="s">
         <v>202</v>
@@ -38347,7 +38347,7 @@
         <v>40517.300000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:30" ht="15.75">
+    <row r="33" spans="2:30" ht="15.6">
       <c r="B33" s="106"/>
       <c r="C33" s="103" t="s">
         <v>201</v>
@@ -38397,7 +38397,7 @@
         <v>7179.93</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="15.75">
+    <row r="34" spans="2:30" ht="15.6">
       <c r="B34" s="106"/>
       <c r="C34" s="103" t="s">
         <v>200</v>
@@ -38450,7 +38450,7 @@
         <v>1227.22</v>
       </c>
     </row>
-    <row r="35" spans="2:30" ht="15.75">
+    <row r="35" spans="2:30" ht="15.6">
       <c r="B35" s="131">
         <f>B31+1</f>
         <v>4</v>
@@ -38510,7 +38510,7 @@
         <v>435.755</v>
       </c>
     </row>
-    <row r="36" spans="2:30" ht="15.75">
+    <row r="36" spans="2:30" ht="15.6">
       <c r="B36" s="106"/>
       <c r="C36" s="105" t="s">
         <v>196</v>
@@ -38565,7 +38565,7 @@
         <v>10.865</v>
       </c>
     </row>
-    <row r="37" spans="2:30" ht="15.75">
+    <row r="37" spans="2:30" ht="15.6">
       <c r="B37" s="106"/>
       <c r="C37" s="105" t="s">
         <v>195</v>
@@ -38677,7 +38677,7 @@
         <v>316034</v>
       </c>
     </row>
-    <row r="39" spans="2:30" ht="15.75">
+    <row r="39" spans="2:30" ht="15.6">
       <c r="B39" s="106">
         <f>B35+1</f>
         <v>5</v>
@@ -38734,7 +38734,7 @@
         <v>234412</v>
       </c>
     </row>
-    <row r="40" spans="2:30" ht="15.75">
+    <row r="40" spans="2:30" ht="15.6">
       <c r="B40" s="106"/>
       <c r="C40" s="105" t="s">
         <v>192</v>
@@ -38785,7 +38785,7 @@
         <v>95883.4</v>
       </c>
     </row>
-    <row r="41" spans="2:30" ht="15.75">
+    <row r="41" spans="2:30" ht="15.6">
       <c r="B41" s="106">
         <f>B39+1</f>
         <v>6</v>
@@ -38845,7 +38845,7 @@
         <v>39802.5</v>
       </c>
     </row>
-    <row r="42" spans="2:30" ht="15.75">
+    <row r="42" spans="2:30" ht="15.6">
       <c r="B42" s="106">
         <f>B41+1</f>
         <v>7</v>
@@ -38902,7 +38902,7 @@
         <v>17664.900000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:30" ht="15.75">
+    <row r="43" spans="2:30" ht="15.6">
       <c r="B43" s="106">
         <f>B42+1</f>
         <v>8</v>
@@ -38962,7 +38962,7 @@
         <v>7178.63</v>
       </c>
     </row>
-    <row r="44" spans="2:30" ht="15.75">
+    <row r="44" spans="2:30" ht="15.6">
       <c r="B44" s="106">
         <f>B43+1</f>
         <v>9</v>
@@ -39019,7 +39019,7 @@
         <v>3570.11</v>
       </c>
     </row>
-    <row r="45" spans="2:30" ht="15.75">
+    <row r="45" spans="2:30" ht="15.6">
       <c r="B45" s="106">
         <f>B44+1</f>
         <v>10</v>
@@ -39076,7 +39076,7 @@
         <v>317.21499999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:30" ht="15.75">
+    <row r="46" spans="2:30" ht="15.6">
       <c r="B46" s="106"/>
       <c r="C46" s="103" t="s">
         <v>183</v>
@@ -39127,7 +39127,7 @@
         <v>56.325000000000003</v>
       </c>
     </row>
-    <row r="47" spans="2:30" ht="15.75">
+    <row r="47" spans="2:30" ht="15.6">
       <c r="B47" s="106">
         <f>B45+1</f>
         <v>11</v>
@@ -39176,7 +39176,7 @@
         <v>9471380</v>
       </c>
     </row>
-    <row r="48" spans="2:30" ht="15.75">
+    <row r="48" spans="2:30" ht="15.6">
       <c r="B48" s="106"/>
       <c r="C48" s="105" t="s">
         <v>181</v>
@@ -39231,7 +39231,7 @@
         <v>675005</v>
       </c>
     </row>
-    <row r="49" spans="2:30" ht="15.75">
+    <row r="49" spans="2:30" ht="15.6">
       <c r="B49" s="106"/>
       <c r="C49" s="103" t="s">
         <v>179</v>
@@ -39344,7 +39344,7 @@
         <v>198094</v>
       </c>
     </row>
-    <row r="51" spans="2:30" ht="15.75">
+    <row r="51" spans="2:30" ht="15.6">
       <c r="B51" s="106"/>
       <c r="C51" s="103" t="s">
         <v>178</v>
@@ -39399,7 +39399,7 @@
         <v>50147</v>
       </c>
     </row>
-    <row r="52" spans="2:30" ht="15.75">
+    <row r="52" spans="2:30" ht="15.6">
       <c r="B52" s="106">
         <f>B47+1</f>
         <v>12</v>
@@ -39460,7 +39460,7 @@
         <v>19212.400000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:30" ht="15.75">
+    <row r="53" spans="2:30" ht="15.6">
       <c r="B53" s="106">
         <f>B52+1</f>
         <v>13</v>
@@ -39521,7 +39521,7 @@
         <v>11170.4</v>
       </c>
     </row>
-    <row r="54" spans="2:30" ht="15.75">
+    <row r="54" spans="2:30" ht="15.6">
       <c r="B54" s="106"/>
       <c r="C54" s="103" t="s">
         <v>174</v>
@@ -39572,7 +39572,7 @@
         <v>6492.5</v>
       </c>
     </row>
-    <row r="55" spans="2:30" ht="15.75">
+    <row r="55" spans="2:30" ht="15.6">
       <c r="B55" s="106">
         <f>B53+1</f>
         <v>14</v>
@@ -39629,7 +39629,7 @@
         <v>2061.4299999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:30" ht="15.75">
+    <row r="56" spans="2:30" ht="15.6">
       <c r="B56" s="106">
         <f>B55+1</f>
         <v>15</v>
@@ -39686,7 +39686,7 @@
         <v>1137.06</v>
       </c>
     </row>
-    <row r="57" spans="2:30" ht="15.75">
+    <row r="57" spans="2:30" ht="15.6">
       <c r="B57" s="106">
         <f>B56+1</f>
         <v>16</v>
@@ -39739,7 +39739,7 @@
         <v>22.55</v>
       </c>
     </row>
-    <row r="58" spans="2:30" ht="15.75">
+    <row r="58" spans="2:30" ht="15.6">
       <c r="B58" s="106">
         <f>B57+1</f>
         <v>17</v>
@@ -39792,7 +39792,7 @@
         <v>11580800</v>
       </c>
     </row>
-    <row r="59" spans="2:30" ht="15.75">
+    <row r="59" spans="2:30" ht="15.6">
       <c r="B59" s="106">
         <f>B58+1</f>
         <v>18</v>
@@ -39845,7 +39845,7 @@
         <v>846889</v>
       </c>
     </row>
-    <row r="60" spans="2:30" ht="15.75">
+    <row r="60" spans="2:30" ht="15.6">
       <c r="B60" s="106">
         <f>B59+1</f>
         <v>19</v>
@@ -39906,7 +39906,7 @@
         <v>627169</v>
       </c>
     </row>
-    <row r="61" spans="2:30" ht="15.75">
+    <row r="61" spans="2:30" ht="15.6">
       <c r="B61" s="106"/>
       <c r="C61" s="103" t="s">
         <v>166</v>
@@ -40050,7 +40050,7 @@
         <v>29240.7</v>
       </c>
     </row>
-    <row r="64" spans="2:30" ht="15.75">
+    <row r="64" spans="2:30" ht="15.6">
       <c r="B64" s="106">
         <f>B63+1</f>
         <v>22</v>
@@ -40090,7 +40090,7 @@
         <v>11043.4</v>
       </c>
     </row>
-    <row r="65" spans="2:30" ht="15.75">
+    <row r="65" spans="2:30" ht="15.6">
       <c r="B65" s="106">
         <f>B64+1</f>
         <v>23</v>
@@ -40130,7 +40130,7 @@
         <v>6030.38</v>
       </c>
     </row>
-    <row r="66" spans="2:30" ht="15.75">
+    <row r="66" spans="2:30" ht="15.6">
       <c r="B66" s="106">
         <f>B65+1</f>
         <v>24</v>
@@ -40173,7 +40173,7 @@
         <v>1930.07</v>
       </c>
     </row>
-    <row r="67" spans="2:30" ht="15.75">
+    <row r="67" spans="2:30" ht="15.6">
       <c r="B67" s="106"/>
       <c r="C67" s="103" t="s">
         <v>320</v>
@@ -40222,7 +40222,7 @@
         <v>362.6</v>
       </c>
     </row>
-    <row r="68" spans="2:30" ht="15.75">
+    <row r="68" spans="2:30" ht="15.6">
       <c r="B68" s="106"/>
       <c r="C68" s="103" t="s">
         <v>319</v>
@@ -40271,7 +40271,7 @@
         <v>56.27</v>
       </c>
     </row>
-    <row r="69" spans="2:30" ht="15.75">
+    <row r="69" spans="2:30" ht="15.6">
       <c r="B69" s="106"/>
       <c r="C69" s="103" t="s">
         <v>318</v>
@@ -40320,7 +40320,7 @@
         <v>10.865</v>
       </c>
     </row>
-    <row r="70" spans="2:30" ht="15.75">
+    <row r="70" spans="2:30" ht="15.6">
       <c r="B70" s="106"/>
       <c r="C70" s="103" t="s">
         <v>317</v>
@@ -40369,7 +40369,7 @@
         <v>11103500</v>
       </c>
     </row>
-    <row r="71" spans="2:30" ht="15.75">
+    <row r="71" spans="2:30" ht="15.6">
       <c r="B71" s="106"/>
       <c r="C71" s="103" t="s">
         <v>316</v>
@@ -40418,7 +40418,7 @@
         <v>710137</v>
       </c>
     </row>
-    <row r="72" spans="2:30" ht="15.75">
+    <row r="72" spans="2:30" ht="15.6">
       <c r="B72" s="106"/>
       <c r="C72" s="103" t="s">
         <v>315</v>
@@ -40467,7 +40467,7 @@
         <v>487653</v>
       </c>
     </row>
-    <row r="73" spans="2:30" ht="15.75">
+    <row r="73" spans="2:30" ht="15.6">
       <c r="B73" s="106"/>
       <c r="C73" s="103" t="s">
         <v>314</v>
@@ -40508,7 +40508,7 @@
         <v>200482</v>
       </c>
     </row>
-    <row r="74" spans="2:30" ht="15.75">
+    <row r="74" spans="2:30" ht="15.6">
       <c r="B74" s="106"/>
       <c r="C74" s="103" t="s">
         <v>313</v>
@@ -40549,7 +40549,7 @@
         <v>85421.6</v>
       </c>
     </row>
-    <row r="75" spans="2:30" ht="15.75">
+    <row r="75" spans="2:30" ht="15.6">
       <c r="B75" s="106"/>
       <c r="C75" s="103" t="s">
         <v>312</v>
@@ -40590,7 +40590,7 @@
         <v>33285.699999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:30" ht="15.75">
+    <row r="76" spans="2:30" ht="15.6">
       <c r="B76" s="106"/>
       <c r="C76" s="105" t="s">
         <v>311</v>
@@ -40635,7 +40635,7 @@
         <v>23038.9</v>
       </c>
     </row>
-    <row r="77" spans="2:30" ht="15.75">
+    <row r="77" spans="2:30" ht="15.6">
       <c r="B77" s="106"/>
       <c r="C77" s="105" t="s">
         <v>310</v>
@@ -40680,7 +40680,7 @@
         <v>9696.7199999999993</v>
       </c>
     </row>
-    <row r="78" spans="2:30" ht="14.25">
+    <row r="78" spans="2:30" ht="14.4">
       <c r="B78" s="106"/>
       <c r="C78" s="112" t="s">
         <v>309</v>
@@ -40725,7 +40725,7 @@
         <v>2869.39</v>
       </c>
     </row>
-    <row r="79" spans="2:30" ht="15.75">
+    <row r="79" spans="2:30" ht="15.6">
       <c r="B79" s="106">
         <f>B66+1</f>
         <v>25</v>
@@ -40785,7 +40785,7 @@
         <v>2108.6799999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:30" ht="15.75">
+    <row r="80" spans="2:30" ht="15.6">
       <c r="B80" s="106"/>
       <c r="C80" s="103" t="s">
         <v>145</v>
@@ -40835,7 +40835,7 @@
         <v>66.819999999999993</v>
       </c>
     </row>
-    <row r="81" spans="2:30" ht="15.75">
+    <row r="81" spans="2:30" ht="16.8">
       <c r="B81" s="106"/>
       <c r="C81" s="103" t="s">
         <v>143</v>
@@ -40889,7 +40889,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="82" spans="2:30" ht="15.75">
+    <row r="82" spans="2:30" ht="15.6">
       <c r="B82" s="106"/>
       <c r="C82" s="103" t="s">
         <v>149</v>
@@ -40943,7 +40943,7 @@
         <v>6.2649999999999997</v>
       </c>
     </row>
-    <row r="83" spans="2:30" ht="15.75">
+    <row r="83" spans="2:30" ht="16.8">
       <c r="B83" s="106"/>
       <c r="C83" s="103" t="s">
         <v>148</v>
@@ -40997,7 +40997,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="84" spans="2:30" ht="15.75">
+    <row r="84" spans="2:30" ht="15.6">
       <c r="B84" s="106">
         <f>B79+1</f>
         <v>26</v>
@@ -41057,7 +41057,7 @@
         <v>11335500</v>
       </c>
     </row>
-    <row r="85" spans="2:30" ht="15.75">
+    <row r="85" spans="2:30" ht="15.6">
       <c r="B85" s="106">
         <f>B84+1</f>
         <v>27</v>
@@ -41116,7 +41116,7 @@
         <v>794046</v>
       </c>
     </row>
-    <row r="86" spans="2:30" ht="15.75">
+    <row r="86" spans="2:30" ht="15.6">
       <c r="B86" s="106"/>
       <c r="C86" s="103" t="s">
         <v>152</v>
@@ -41173,7 +41173,7 @@
         <v>535406</v>
       </c>
     </row>
-    <row r="87" spans="2:30" ht="15.75">
+    <row r="87" spans="2:30" ht="15.6">
       <c r="B87" s="106"/>
       <c r="C87" s="103" t="s">
         <v>152</v>
@@ -41230,7 +41230,7 @@
         <v>248475</v>
       </c>
     </row>
-    <row r="88" spans="2:30" ht="15.75">
+    <row r="88" spans="2:30" ht="15.6">
       <c r="B88" s="106">
         <f>B85+1</f>
         <v>28</v>
@@ -41290,7 +41290,7 @@
         <v>104468</v>
       </c>
     </row>
-    <row r="89" spans="2:30" ht="15.75">
+    <row r="89" spans="2:30" ht="15.6">
       <c r="B89" s="106">
         <f>B88+1</f>
         <v>29</v>
@@ -41350,7 +41350,7 @@
         <v>48131.1</v>
       </c>
     </row>
-    <row r="90" spans="2:30" ht="15.75">
+    <row r="90" spans="2:30" ht="15.6">
       <c r="B90" s="106">
         <f>B89+1</f>
         <v>30</v>
@@ -41413,7 +41413,7 @@
         <v>23220.9</v>
       </c>
     </row>
-    <row r="91" spans="2:30" ht="15.75">
+    <row r="91" spans="2:30" ht="15.6">
       <c r="B91" s="106">
         <f>B90+1</f>
         <v>31</v>
@@ -41476,7 +41476,7 @@
         <v>12974.6</v>
       </c>
     </row>
-    <row r="92" spans="2:30" ht="15.75">
+    <row r="92" spans="2:30" ht="15.6">
       <c r="B92" s="106"/>
       <c r="C92" s="105" t="s">
         <v>141</v>
@@ -41534,7 +41534,7 @@
         <v>4267.88</v>
       </c>
     </row>
-    <row r="93" spans="2:30" ht="15.75">
+    <row r="93" spans="2:30" ht="15.6">
       <c r="B93" s="106">
         <f>B91+1</f>
         <v>32</v>
@@ -41591,7 +41591,7 @@
         <v>1304.25</v>
       </c>
     </row>
-    <row r="94" spans="2:30" ht="15.75">
+    <row r="94" spans="2:30" ht="15.6">
       <c r="B94" s="106">
         <f>B93+1</f>
         <v>33</v>
@@ -41647,7 +41647,7 @@
         <v>259.005</v>
       </c>
     </row>
-    <row r="95" spans="2:30" ht="15.75">
+    <row r="95" spans="2:30" ht="15.6">
       <c r="B95" s="106">
         <f>B94+1</f>
         <v>34</v>
@@ -41710,7 +41710,7 @@
         <v>39.174999999999997</v>
       </c>
     </row>
-    <row r="96" spans="2:30" ht="15.75">
+    <row r="96" spans="2:30" ht="15.6">
       <c r="B96" s="106">
         <f>B95+1</f>
         <v>35</v>
@@ -41769,7 +41769,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="97" spans="2:30" ht="15.75">
+    <row r="97" spans="2:30" ht="15.6">
       <c r="B97" s="106">
         <f>B96+1</f>
         <v>36</v>
@@ -41879,7 +41879,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="99" spans="2:30" ht="15.75">
+    <row r="99" spans="2:30" ht="15.6">
       <c r="B99" s="106">
         <f>B97+1</f>
         <v>37</v>
@@ -41939,7 +41939,7 @@
         <v>6.2249999999999996</v>
       </c>
     </row>
-    <row r="100" spans="2:30" ht="15.75">
+    <row r="100" spans="2:30" ht="15.6">
       <c r="B100" s="106">
         <f>B99+1</f>
         <v>38</v>
@@ -42119,7 +42119,7 @@
         <v>13519300</v>
       </c>
     </row>
-    <row r="103" spans="2:30" ht="15.75">
+    <row r="103" spans="2:30" ht="15.6">
       <c r="B103" s="106"/>
       <c r="C103" s="103" t="s">
         <v>133</v>
@@ -42169,7 +42169,7 @@
         <v>904574</v>
       </c>
     </row>
-    <row r="104" spans="2:30" ht="15.75">
+    <row r="104" spans="2:30" ht="15.6">
       <c r="B104" s="106">
         <f>B102+1</f>
         <v>41</v>
@@ -42261,7 +42261,7 @@
         <v>279180</v>
       </c>
     </row>
-    <row r="106" spans="2:30" ht="15.75">
+    <row r="106" spans="2:30" ht="15.6">
       <c r="B106" s="106">
         <f t="shared" si="11"/>
         <v>43</v>
@@ -42321,7 +42321,7 @@
         <v>145806</v>
       </c>
     </row>
-    <row r="107" spans="2:30" ht="15.75">
+    <row r="107" spans="2:30" ht="15.6">
       <c r="B107" s="106">
         <f t="shared" si="11"/>
         <v>44</v>
@@ -42384,7 +42384,7 @@
         <v>70057</v>
       </c>
     </row>
-    <row r="108" spans="2:30" ht="15.75">
+    <row r="108" spans="2:30" ht="15.6">
       <c r="B108" s="106">
         <f t="shared" si="11"/>
         <v>45</v>
@@ -42444,7 +42444,7 @@
         <v>39169.800000000003</v>
       </c>
     </row>
-    <row r="109" spans="2:30" ht="15.75">
+    <row r="109" spans="2:30" ht="15.6">
       <c r="B109" s="106">
         <f t="shared" si="11"/>
         <v>46</v>
@@ -42501,7 +42501,7 @@
         <v>16842.400000000001</v>
       </c>
     </row>
-    <row r="110" spans="2:30" ht="15.75">
+    <row r="110" spans="2:30" ht="15.6">
       <c r="B110" s="106">
         <f t="shared" si="11"/>
         <v>47</v>
@@ -42564,7 +42564,7 @@
         <v>6154.11</v>
       </c>
     </row>
-    <row r="111" spans="2:30" ht="15.75">
+    <row r="111" spans="2:30" ht="15.6">
       <c r="B111" s="106">
         <f t="shared" si="11"/>
         <v>48</v>
@@ -42670,7 +42670,7 @@
         <v>869.21500000000003</v>
       </c>
     </row>
-    <row r="113" spans="2:30" ht="15.75">
+    <row r="113" spans="2:30" ht="15.6">
       <c r="B113" s="106"/>
       <c r="C113" s="105" t="s">
         <v>269</v>
@@ -42727,7 +42727,7 @@
         <v>109.21</v>
       </c>
     </row>
-    <row r="114" spans="2:30" ht="15.75">
+    <row r="114" spans="2:30" ht="15.6">
       <c r="B114" s="106">
         <f>B112+1</f>
         <v>50</v>
@@ -42773,7 +42773,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="115" spans="2:30" ht="15.75">
+    <row r="115" spans="2:30" ht="15.6">
       <c r="B115" s="106">
         <f>B114+1</f>
         <v>51</v>
@@ -42819,7 +42819,7 @@
         <v>36.094999999999999</v>
       </c>
     </row>
-    <row r="116" spans="2:30" ht="15.75">
+    <row r="116" spans="2:30" ht="15.6">
       <c r="B116" s="106">
         <f>B115+1</f>
         <v>52</v>
@@ -42865,7 +42865,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="117" spans="2:30" ht="15.75">
+    <row r="117" spans="2:30" ht="15.6">
       <c r="B117" s="106">
         <f>B116+1</f>
         <v>53</v>
@@ -42926,7 +42926,7 @@
         <v>25.65</v>
       </c>
     </row>
-    <row r="118" spans="2:30" ht="15.75">
+    <row r="118" spans="2:30" ht="15.6">
       <c r="C118" s="105" t="s">
         <v>124</v>
       </c>
@@ -42980,7 +42980,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="119" spans="2:30" ht="15.75">
+    <row r="119" spans="2:30" ht="15.6">
       <c r="B119" s="106">
         <f>B117+1</f>
         <v>54</v>
@@ -43041,7 +43041,7 @@
         <v>18138600</v>
       </c>
     </row>
-    <row r="120" spans="2:30" ht="15.75">
+    <row r="120" spans="2:30" ht="15.6">
       <c r="C120" s="105" t="s">
         <v>122</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>1574830</v>
       </c>
     </row>
-    <row r="121" spans="2:30" ht="15.75">
+    <row r="121" spans="2:30" ht="15.6">
       <c r="C121" s="105" t="s">
         <v>337</v>
       </c>
@@ -43145,7 +43145,7 @@
         <v>915602</v>
       </c>
     </row>
-    <row r="122" spans="2:30" ht="18.75">
+    <row r="122" spans="2:30" ht="16.2">
       <c r="C122" s="151" t="s">
         <v>338</v>
       </c>
@@ -43198,7 +43198,7 @@
         <v>428559</v>
       </c>
     </row>
-    <row r="123" spans="2:30" ht="18.75">
+    <row r="123" spans="2:30" ht="16.2">
       <c r="C123" s="151" t="s">
         <v>339</v>
       </c>
@@ -43251,7 +43251,7 @@
         <v>194489</v>
       </c>
     </row>
-    <row r="124" spans="2:30" ht="18.75">
+    <row r="124" spans="2:30" ht="16.2">
       <c r="C124" s="151" t="s">
         <v>340</v>
       </c>
@@ -43304,7 +43304,7 @@
         <v>84338.3</v>
       </c>
     </row>
-    <row r="125" spans="2:30" ht="18.75">
+    <row r="125" spans="2:30" ht="16.2">
       <c r="C125" s="151" t="s">
         <v>338</v>
       </c>
@@ -43357,7 +43357,7 @@
         <v>45762.9</v>
       </c>
     </row>
-    <row r="126" spans="2:30" ht="18.75">
+    <row r="126" spans="2:30" ht="16.2">
       <c r="C126" s="151" t="s">
         <v>339</v>
       </c>
@@ -43410,7 +43410,7 @@
         <v>23205.599999999999</v>
       </c>
     </row>
-    <row r="127" spans="2:30" ht="18.75">
+    <row r="127" spans="2:30" ht="16.2">
       <c r="C127" s="151" t="s">
         <v>340</v>
       </c>
@@ -43460,7 +43460,7 @@
         <v>10558.8</v>
       </c>
     </row>
-    <row r="128" spans="2:30" ht="18.75">
+    <row r="128" spans="2:30" ht="16.2">
       <c r="C128" s="151" t="s">
         <v>341</v>
       </c>
@@ -43507,7 +43507,7 @@
         <v>5582.2</v>
       </c>
     </row>
-    <row r="129" spans="3:30" ht="18.75">
+    <row r="129" spans="3:30" ht="16.2">
       <c r="C129" s="151" t="s">
         <v>342</v>
       </c>
@@ -43554,7 +43554,7 @@
         <v>2217.0500000000002</v>
       </c>
     </row>
-    <row r="130" spans="3:30" ht="18.75">
+    <row r="130" spans="3:30" ht="16.2">
       <c r="C130" s="151" t="s">
         <v>343</v>
       </c>
@@ -43604,7 +43604,7 @@
         <v>1169.0899999999999</v>
       </c>
     </row>
-    <row r="131" spans="3:30" ht="15.75">
+    <row r="131" spans="3:30" ht="15.6">
       <c r="C131" s="112" t="s">
         <v>344</v>
       </c>
@@ -43651,7 +43651,7 @@
         <v>326.435</v>
       </c>
     </row>
-    <row r="132" spans="3:30" ht="15.75">
+    <row r="132" spans="3:30" ht="15.6">
       <c r="C132" s="112" t="s">
         <v>345</v>
       </c>
@@ -43698,7 +43698,7 @@
         <v>290.89999999999998</v>
       </c>
     </row>
-    <row r="133" spans="3:30" ht="15.75">
+    <row r="133" spans="3:30" ht="15.6">
       <c r="C133" s="112" t="s">
         <v>346</v>
       </c>
@@ -55810,15 +55810,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -55832,23 +55832,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E5A98ECA1EC044BB77E0D7F6ADEF7BC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5e88349ac6f5efd4674595e2a92e1fa9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2278e7f3-5df8-4100-b836-5320443b7544" xmlns:ns4="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bde21b231255bb48ab8a6ec7dd561648" ns3:_="" ns4:_="">
     <xsd:import namespace="2278e7f3-5df8-4100-b836-5320443b7544"/>
@@ -56101,10 +56084,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -56127,20 +56138,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>